--- a/outputs/torch/resnet18.xlsx
+++ b/outputs/torch/resnet18.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
@@ -60,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -96,7 +96,75 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,10 +460,10 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3518,26 +3586,26 @@
         <v>513000</v>
       </c>
       <c r="T76" t="n">
-        <v>513000</v>
+        <v>512000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R76">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>802816.0</formula>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+      <formula>802816</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S76">
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>2359296.0</formula>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>2359296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T76">
-    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
-      <formula>118013952.0</formula>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>118013952</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3555,7 +3623,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3572,7 +3640,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.131324768066406</v>
+        <v>7.477736</v>
       </c>
     </row>
     <row r="3">
@@ -3582,7 +3650,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.14798736572266</v>
+        <v>11.689512</v>
       </c>
     </row>
     <row r="4">
@@ -3592,10 +3660,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.689488388597965</v>
+        <v>1.814073344</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>